--- a/работна/ПП.xlsx
+++ b/работна/ПП.xlsx
@@ -384,7 +384,7 @@
   <dimension ref="B1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,74 +402,74 @@
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
@@ -482,29 +482,32 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="B2:C14">
+    <sortCondition ref="C1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/работна/ПП.xlsx
+++ b/работна/ПП.xlsx
@@ -384,7 +384,7 @@
   <dimension ref="B1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B1" sqref="B1:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,74 +402,74 @@
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
@@ -482,31 +482,31 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C14">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="B2:C14">
-    <sortCondition ref="C1"/>
+    <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/работна/ПП.xlsx
+++ b/работна/ПП.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>Александър Кулин</t>
   </si>
@@ -64,12 +65,24 @@
   </si>
   <si>
     <t>Теодора Левтерова</t>
+  </si>
+  <si>
+    <t>06.01</t>
+  </si>
+  <si>
+    <t>07.01</t>
+  </si>
+  <si>
+    <t>08.01</t>
+  </si>
+  <si>
+    <t>09.01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -79,15 +92,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -95,15 +114,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Нормален" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -373,7 +431,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -383,16 +441,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>12</v>
       </c>
@@ -400,7 +458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -408,7 +466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -416,7 +474,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -424,7 +482,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -432,7 +490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -440,7 +498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -448,7 +506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -456,7 +514,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -464,7 +522,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -472,7 +530,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -480,7 +538,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -488,7 +546,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -496,7 +554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>14</v>
       </c>
@@ -510,4 +568,231 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="5" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2">
+        <v>16</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2">
+        <v>17</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="3"/>
+    </row>
+  </sheetData>
+  <sortState ref="B2:C14">
+    <sortCondition ref="C2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/работна/ПП.xlsx
+++ b/работна/ПП.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="20">
   <si>
     <t>Александър Кулин</t>
   </si>
@@ -67,9 +67,6 @@
     <t>Теодора Левтерова</t>
   </si>
   <si>
-    <t>06.01</t>
-  </si>
-  <si>
     <t>07.01</t>
   </si>
   <si>
@@ -77,12 +74,18 @@
   </si>
   <si>
     <t>09.01</t>
+  </si>
+  <si>
+    <t>12.01</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -153,15 +156,17 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Нормален" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -431,7 +436,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -445,12 +450,12 @@
       <selection sqref="A1:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.109375" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>12</v>
       </c>
@@ -458,7 +463,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -466,7 +471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -474,7 +479,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -482,7 +487,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -490,7 +495,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -498,7 +503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -506,7 +511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -514,7 +519,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -522,7 +527,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -530,7 +535,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -538,7 +543,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -546,7 +551,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -554,7 +559,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>14</v>
       </c>
@@ -574,19 +579,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
-    <col min="5" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="4" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>12</v>
@@ -594,20 +599,20 @@
       <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -615,12 +620,14 @@
       <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -628,12 +635,14 @@
       <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
@@ -641,12 +650,14 @@
       <c r="C4" s="2">
         <v>4</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>0</v>
@@ -654,12 +665,14 @@
       <c r="C5" s="2">
         <v>5</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -667,12 +680,14 @@
       <c r="C6" s="2">
         <v>6</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>8</v>
@@ -680,12 +695,14 @@
       <c r="C7" s="2">
         <v>7</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>10</v>
@@ -693,12 +710,14 @@
       <c r="C8" s="2">
         <v>9</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>2</v>
@@ -706,12 +725,14 @@
       <c r="C9" s="2">
         <v>10</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>11</v>
@@ -719,12 +740,14 @@
       <c r="C10" s="2">
         <v>11</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
@@ -732,12 +755,14 @@
       <c r="C11" s="2">
         <v>12</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>1</v>
@@ -745,12 +770,12 @@
       <c r="C12" s="2">
         <v>14</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>5</v>
@@ -758,12 +783,14 @@
       <c r="C13" s="2">
         <v>16</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>7</v>
@@ -771,21 +798,23 @@
       <c r="C14" s="2">
         <v>17</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
     </row>
   </sheetData>

--- a/работна/ПП.xlsx
+++ b/работна/ПП.xlsx
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/работна/ПП.xlsx
+++ b/работна/ПП.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,9 +103,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd\.mm\.yyyy\ &quot;г.&quot;;@"/>
+    <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy\ &quot;г.&quot;;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -123,7 +123,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,6 +133,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -164,16 +170,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Нормален" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -443,7 +451,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -457,12 +465,12 @@
       <selection sqref="A1:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.109375" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>12</v>
       </c>
@@ -470,7 +478,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -478,7 +486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -486,7 +494,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -494,7 +502,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -502,7 +510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -510,7 +518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -518,7 +526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -526,7 +534,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -534,7 +542,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -542,7 +550,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -550,7 +558,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -558,7 +566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -566,7 +574,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>14</v>
       </c>
@@ -584,22 +592,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N70"/>
+  <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection activeCell="A37" sqref="A37"/>
-      <selection pane="topRight" activeCell="K73" sqref="K73"/>
+      <selection pane="topRight" activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="14" width="17.77734375" customWidth="1"/>
-    <col min="15" max="17" width="18.77734375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="14" width="17.7109375" customWidth="1"/>
+    <col min="15" max="17" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -643,7 +651,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>46043</v>
       </c>
@@ -661,7 +669,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>46044</v>
       </c>
@@ -679,7 +687,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>46045</v>
       </c>
@@ -697,7 +705,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>46048</v>
       </c>
@@ -715,7 +723,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>46049</v>
       </c>
@@ -733,7 +741,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>46050</v>
       </c>
@@ -751,7 +759,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>46051</v>
       </c>
@@ -769,7 +777,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>46052</v>
       </c>
@@ -787,7 +795,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>46055</v>
       </c>
@@ -805,11 +813,11 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>46056</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="4"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -823,12 +831,12 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>46057</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="C12" s="7"/>
       <c r="D12" s="4"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -841,13 +849,13 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>46058</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="4"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -859,14 +867,14 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>46059</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="4"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -877,7 +885,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>46062</v>
       </c>
@@ -885,7 +893,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="4"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -895,7 +903,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>46063</v>
       </c>
@@ -904,7 +912,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="7"/>
       <c r="H16" s="4"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -913,7 +921,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>46064</v>
       </c>
@@ -923,7 +931,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="H17" s="7"/>
       <c r="I17" s="4"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -931,7 +939,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>46065</v>
       </c>
@@ -942,14 +950,14 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="I18" s="7"/>
       <c r="J18" s="4"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>46066</v>
       </c>
@@ -961,13 +969,13 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="J19" s="7"/>
       <c r="K19" s="4"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>46069</v>
       </c>
@@ -980,12 +988,12 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="K20" s="7"/>
       <c r="L20" s="4"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>46070</v>
       </c>
@@ -1003,7 +1011,7 @@
       <c r="M21" s="4"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>46071</v>
       </c>
@@ -1021,7 +1029,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="4"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>46072</v>
       </c>
@@ -1039,7 +1047,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>46073</v>
       </c>
@@ -1057,7 +1065,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>46076</v>
       </c>
@@ -1075,7 +1083,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>46079</v>
       </c>
@@ -1093,7 +1101,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>46080</v>
       </c>
@@ -1111,11 +1119,11 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>46083</v>
       </c>
-      <c r="B28" s="1"/>
+      <c r="B28" s="7"/>
       <c r="C28" s="4"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1129,12 +1137,12 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>46085</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="C29" s="7"/>
       <c r="D29" s="4"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1147,13 +1155,13 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>46086</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="D30" s="7"/>
       <c r="E30" s="4"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -1165,14 +1173,14 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>46087</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="E31" s="7"/>
       <c r="F31" s="4"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1183,7 +1191,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>46090</v>
       </c>
@@ -1191,7 +1199,7 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="F32" s="7"/>
       <c r="G32" s="4"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -1201,7 +1209,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>46091</v>
       </c>
@@ -1210,7 +1218,7 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="G33" s="7"/>
       <c r="H33" s="4"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -1219,7 +1227,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>46092</v>
       </c>
@@ -1229,7 +1237,7 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="H34" s="7"/>
       <c r="I34" s="4"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -1237,7 +1245,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>46093</v>
       </c>
@@ -1248,14 +1256,14 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="I35" s="7"/>
       <c r="J35" s="4"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>46094</v>
       </c>
@@ -1267,13 +1275,13 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
+      <c r="J36" s="7"/>
       <c r="K36" s="4"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>46097</v>
       </c>
@@ -1286,12 +1294,12 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
+      <c r="K37" s="7"/>
       <c r="L37" s="4"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>46098</v>
       </c>
@@ -1309,7 +1317,7 @@
       <c r="M38" s="4"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>46099</v>
       </c>
@@ -1327,7 +1335,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="4"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>46100</v>
       </c>
@@ -1345,11 +1353,11 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>46101</v>
       </c>
-      <c r="B41" s="1"/>
+      <c r="B41" s="7"/>
       <c r="C41" s="4"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -1363,12 +1371,12 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>46104</v>
       </c>
       <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
+      <c r="C42" s="7"/>
       <c r="D42" s="4"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -1381,13 +1389,13 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>46105</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="D43" s="7"/>
       <c r="E43" s="4"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -1399,14 +1407,14 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>46106</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
+      <c r="E44" s="7"/>
       <c r="F44" s="4"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -1417,7 +1425,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>46107</v>
       </c>
@@ -1425,7 +1433,7 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
+      <c r="F45" s="7"/>
       <c r="G45" s="4"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -1435,7 +1443,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>46108</v>
       </c>
@@ -1444,7 +1452,7 @@
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
+      <c r="G46" s="7"/>
       <c r="H46" s="4"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -1453,7 +1461,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>46111</v>
       </c>
@@ -1463,7 +1471,7 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
+      <c r="H47" s="7"/>
       <c r="I47" s="4"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -1471,7 +1479,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>46112</v>
       </c>
@@ -1482,14 +1490,14 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
+      <c r="I48" s="7"/>
       <c r="J48" s="4"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>46113</v>
       </c>
@@ -1501,13 +1509,13 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
+      <c r="J49" s="7"/>
       <c r="K49" s="4"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>46114</v>
       </c>
@@ -1520,12 +1528,12 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
+      <c r="K50" s="7"/>
       <c r="L50" s="4"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>46115</v>
       </c>
@@ -1543,7 +1551,7 @@
       <c r="M51" s="4"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>46118</v>
       </c>
@@ -1561,7 +1569,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="4"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>46119</v>
       </c>
@@ -1579,7 +1587,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>46120</v>
       </c>
@@ -1597,7 +1605,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>46121</v>
       </c>
@@ -1615,7 +1623,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>46122</v>
       </c>
@@ -1633,11 +1641,11 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>46125</v>
       </c>
-      <c r="B57" s="1"/>
+      <c r="B57" s="7"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -1651,7 +1659,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>46126</v>
       </c>
@@ -1659,7 +1667,7 @@
       <c r="C58" s="4"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
+      <c r="F58" s="7"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -1669,12 +1677,12 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>46127</v>
       </c>
       <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
+      <c r="C59" s="7"/>
       <c r="D59" s="4"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -1687,13 +1695,13 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>46128</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
+      <c r="D60" s="7"/>
       <c r="E60" s="4"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -1705,14 +1713,14 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>46129</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
+      <c r="E61" s="7"/>
       <c r="F61" s="1"/>
       <c r="G61" s="4"/>
       <c r="H61" s="1"/>
@@ -1723,7 +1731,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>46132</v>
       </c>
@@ -1732,7 +1740,7 @@
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
+      <c r="G62" s="7"/>
       <c r="H62" s="4"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -1741,7 +1749,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>46133</v>
       </c>
@@ -1751,7 +1759,7 @@
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
+      <c r="H63" s="7"/>
       <c r="I63" s="4"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
@@ -1759,7 +1767,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>46134</v>
       </c>
@@ -1770,14 +1778,14 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
+      <c r="I64" s="7"/>
       <c r="J64" s="4"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>46135</v>
       </c>
@@ -1789,13 +1797,13 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
+      <c r="J65" s="7"/>
       <c r="K65" s="4"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>46136</v>
       </c>
@@ -1808,12 +1816,12 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
+      <c r="K66" s="7"/>
       <c r="L66" s="4"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>46139</v>
       </c>
@@ -1831,7 +1839,7 @@
       <c r="M67" s="4"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>46140</v>
       </c>
@@ -1849,7 +1857,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="4"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>46141</v>
       </c>
@@ -1867,7 +1875,7 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="1" t="s">
         <v>16</v>
@@ -1902,6 +1910,9 @@
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K73" s="6"/>
     </row>
   </sheetData>
   <sortState ref="B2:C14">

--- a/работна/ПП.xlsx
+++ b/работна/ПП.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd\.mm\.yyyy\ &quot;г.&quot;;@"/>
+    <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy\ &quot;г.&quot;;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -167,10 +167,10 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Нормален" xfId="0" builtinId="0"/>
@@ -443,7 +443,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -453,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -472,74 +472,74 @@
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
@@ -552,31 +552,31 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="B2:C14">
-    <sortCondition ref="B2"/>
+    <sortCondition ref="C2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -586,7 +586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection activeCell="A37" sqref="A37"/>
       <selection pane="topRight" activeCell="K73" sqref="K73"/>

--- a/работна/ПП.xlsx
+++ b/работна/ПП.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -459,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C14"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C14"/>
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,7 +471,7 @@
     <col min="2" max="2" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>12</v>
       </c>
@@ -478,63 +479,87 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C8">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -542,62 +567,90 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
       <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
         <v>9</v>
       </c>
-      <c r="C11">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B2:C14">
-    <sortCondition ref="B2"/>
+  <sortState ref="A2:C14">
+    <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection activeCell="A37" sqref="A37"/>
-      <selection pane="topRight" activeCell="A66" sqref="A66"/>
+      <selection pane="topRight" activeCell="I43" sqref="I43:I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/работна/ПП.xlsx
+++ b/работна/ПП.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy\ &quot;г.&quot;;@"/>
   </numFmts>
@@ -124,7 +124,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,6 +140,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -171,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -180,9 +210,15 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Нормален" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -452,7 +488,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -460,167 +496,171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="13">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="11">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="8">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="9">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="13">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="13">
         <v>1</v>
       </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="10"/>
     </row>
   </sheetData>
   <sortState ref="A2:C14">
@@ -637,7 +677,7 @@
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -653,14 +693,14 @@
       <selection pane="topRight" activeCell="I43" sqref="I43:I47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="14" width="17.7109375" customWidth="1"/>
-    <col min="15" max="17" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="14" width="17.6640625" customWidth="1"/>
+    <col min="15" max="17" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -704,7 +744,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>46043</v>
       </c>
@@ -722,7 +762,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>46044</v>
       </c>
@@ -740,7 +780,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>46045</v>
       </c>
@@ -758,7 +798,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>46048</v>
       </c>
@@ -776,7 +816,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>46049</v>
       </c>
@@ -794,7 +834,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>46050</v>
       </c>
@@ -812,7 +852,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>46051</v>
       </c>
@@ -830,7 +870,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>46052</v>
       </c>
@@ -848,7 +888,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>46055</v>
       </c>
@@ -866,7 +906,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>46056</v>
       </c>
@@ -884,7 +924,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>46057</v>
       </c>
@@ -902,7 +942,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>46058</v>
       </c>
@@ -920,7 +960,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>46059</v>
       </c>
@@ -938,7 +978,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>46062</v>
       </c>
@@ -956,7 +996,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>46063</v>
       </c>
@@ -974,7 +1014,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>46064</v>
       </c>
@@ -992,7 +1032,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>46065</v>
       </c>
@@ -1010,7 +1050,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>46066</v>
       </c>
@@ -1028,7 +1068,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>46069</v>
       </c>
@@ -1046,7 +1086,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>46070</v>
       </c>
@@ -1064,7 +1104,7 @@
       <c r="M21" s="4"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>46071</v>
       </c>
@@ -1082,7 +1122,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="4"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>46072</v>
       </c>
@@ -1100,7 +1140,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>46073</v>
       </c>
@@ -1118,7 +1158,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>46076</v>
       </c>
@@ -1136,7 +1176,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>46079</v>
       </c>
@@ -1154,7 +1194,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>46080</v>
       </c>
@@ -1172,7 +1212,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>46083</v>
       </c>
@@ -1190,7 +1230,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>46085</v>
       </c>
@@ -1208,7 +1248,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>46086</v>
       </c>
@@ -1226,7 +1266,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>46087</v>
       </c>
@@ -1244,7 +1284,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>46090</v>
       </c>
@@ -1262,7 +1302,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>46091</v>
       </c>
@@ -1280,7 +1320,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>46092</v>
       </c>
@@ -1298,7 +1338,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>46093</v>
       </c>
@@ -1316,7 +1356,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>46094</v>
       </c>
@@ -1334,7 +1374,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>46097</v>
       </c>
@@ -1352,7 +1392,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>46098</v>
       </c>
@@ -1370,7 +1410,7 @@
       <c r="M38" s="4"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>46099</v>
       </c>
@@ -1388,7 +1428,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="4"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>46100</v>
       </c>
@@ -1406,7 +1446,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>46101</v>
       </c>
@@ -1424,7 +1464,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>46104</v>
       </c>
@@ -1442,7 +1482,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>46105</v>
       </c>
@@ -1460,7 +1500,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>46106</v>
       </c>
@@ -1478,7 +1518,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>46107</v>
       </c>
@@ -1496,7 +1536,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>46108</v>
       </c>
@@ -1514,7 +1554,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>46111</v>
       </c>
@@ -1532,7 +1572,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>46112</v>
       </c>
@@ -1550,7 +1590,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>46113</v>
       </c>
@@ -1568,7 +1608,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>46114</v>
       </c>
@@ -1586,7 +1626,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>46115</v>
       </c>
@@ -1604,7 +1644,7 @@
       <c r="M51" s="4"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>46118</v>
       </c>
@@ -1622,7 +1662,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="4"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>46119</v>
       </c>
@@ -1640,7 +1680,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>46120</v>
       </c>
@@ -1658,7 +1698,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>46121</v>
       </c>
@@ -1676,7 +1716,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>46122</v>
       </c>
@@ -1694,7 +1734,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>46125</v>
       </c>
@@ -1712,7 +1752,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>46126</v>
       </c>
@@ -1730,7 +1770,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>46127</v>
       </c>
@@ -1748,7 +1788,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>46128</v>
       </c>
@@ -1766,7 +1806,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>46129</v>
       </c>
@@ -1784,7 +1824,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>46132</v>
       </c>
@@ -1802,7 +1842,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <v>46133</v>
       </c>
@@ -1820,7 +1860,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>46134</v>
       </c>
@@ -1838,7 +1878,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>46135</v>
       </c>
@@ -1856,7 +1896,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>46136</v>
       </c>
@@ -1874,7 +1914,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>46139</v>
       </c>
@@ -1892,7 +1932,7 @@
       <c r="M67" s="4"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>46140</v>
       </c>
@@ -1910,7 +1950,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="4"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>46141</v>
       </c>
@@ -1928,7 +1968,7 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" s="1" t="s">
         <v>16</v>
@@ -1964,7 +2004,7 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="K73" s="6"/>
     </row>
   </sheetData>

--- a/работна/ПП.xlsx
+++ b/работна/ПП.xlsx
@@ -488,7 +488,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -499,7 +499,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -518,24 +518,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="13">
+        <v>13</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="13">
         <v>1</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="13">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="13">
         <v>2</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="13">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -551,112 +551,112 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
         <v>9</v>
       </c>
-      <c r="C5" s="13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
+      <c r="B6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C7" s="13">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
-        <v>6</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="11">
-        <v>11</v>
-      </c>
-    </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="8">
-        <v>14</v>
+      <c r="A8" s="13">
+        <v>10</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="13">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="9">
-        <v>17</v>
+      <c r="A9" s="13">
+        <v>2</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="13">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C10" s="11">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="13">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
+      <c r="A12" s="8">
+        <v>7</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B13" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C13" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="13">
-        <v>5</v>
-      </c>
-    </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="13">
-        <v>13</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="13">
-        <v>1</v>
+      <c r="A14" s="9">
+        <v>8</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="9">
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -664,7 +664,7 @@
     </row>
   </sheetData>
   <sortState ref="A2:C14">
-    <sortCondition ref="A2"/>
+    <sortCondition ref="C2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
